--- a/biology/Médecine/Joseph_Babinski/Joseph_Babinski.xlsx
+++ b/biology/Médecine/Joseph_Babinski/Joseph_Babinski.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Joseph Jules François Félix Babinski (en polonais Józef Julian Franciszek Feliks Babiński), né à Paris le 17 novembre 1857 et mort  dans la même ville le 29 octobre 1932, est un médecin neurologue français d'ascendance polonaise.
 </t>
@@ -513,17 +525,15 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Famille
-Fils d'un ingénieur polonais installé à Paris en 1848 pour échapper à la répression russe des revendications d'indépendance de la Pologne, Joseph Babinski grandit à Montparnasse.
-La vie privée de Babinski est peu connue. Il resta célibataire et partagea son existence avec son frère Henri, ingénieur des mines et gastronome célèbre à l'époque sous le pseudonyme d'« Ali-Bab ». On sait par son testament qu'il fut le tuteur des trois filles de son ami Henri Parinaud devenues orphelines en 1905, et que deux d'entre elles, Ellen (1897-1981) et Karen (1903-1975), héritèrent de sa fortune[1].
-Il est le frère de Henri Joseph Séverin Babinski (1855-1931)[2],[3], ingénieur civil des Mines, connu sous le nom de "Ali Bab". Les deux frères cotisaient annuellement pour le journal de L'Action française et étaient des amis de Léon Daudet[4],[5].
-Formation
-À la fin de son internat, Joseph Babinski est promu chef de clinique de Charcot, dont il devient l'élève préféré, et participe aux leçons du maître à l'hôpital de la Salpêtrière.
-Carrière médicale
-En 1890, Joseph Babinski est nommé médecin des hôpitaux. On dit qu'il était peu loquace durant ses consultations mais qu'il était un observateur exceptionnel. En 1895, il devient chef de service à l'Hôpital de la Pitié[6] où il exerce jusqu'à sa retraite en 1922. Atteint de la maladie de Parkinson, il meurt en décembre 1932.
-Il a codifié la neurologie et distingué les grandes affections neurologique organiques des syndromes psychiatriques. Ses études sur les réflexes, la physiologie du cervelet ne sont que quelques étapes de l'œuvre de l'un des fondateurs de la société française de neurologie.
-Activités littéraires
-Joseph Babinski est coauteur, sous le nom de plume d'Olaf, d'une pièce de Grand-Guignol écrite avec Pierre Palau et intitulée Les Détraquées. Celle-ci fut représentée pour la première fois au Théâtre des Deux-Masques le 15 février 1921[7]. Elle relate le meurtre d'une jeune élève par la directrice d'un collège de filles et sa complice, professeur de danse. La pièce évoque sans fards les pulsions érotiques entre femmes. André Breton, qui fut en 1917 l'un des externes de Babinski, fait allusion à cette pièce dans Nadja[8]. Marcel Proust a été son patient de 1918 à 1922[9] (biographie de Jean-Yves Tadié, édition de 2022).
+          <t>Famille</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fils d'un ingénieur polonais installé à Paris en 1848 pour échapper à la répression russe des revendications d'indépendance de la Pologne, Joseph Babinski grandit à Montparnasse.
+La vie privée de Babinski est peu connue. Il resta célibataire et partagea son existence avec son frère Henri, ingénieur des mines et gastronome célèbre à l'époque sous le pseudonyme d'« Ali-Bab ». On sait par son testament qu'il fut le tuteur des trois filles de son ami Henri Parinaud devenues orphelines en 1905, et que deux d'entre elles, Ellen (1897-1981) et Karen (1903-1975), héritèrent de sa fortune.
+Il est le frère de Henri Joseph Séverin Babinski (1855-1931) ingénieur civil des Mines, connu sous le nom de "Ali Bab". Les deux frères cotisaient annuellement pour le journal de L'Action française et étaient des amis de Léon Daudet,.
 </t>
         </is>
       </c>
@@ -549,12 +559,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Distinctions</t>
+          <t>Biographie</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Commandeur de la Légion d'honneur</t>
+          <t>Formation</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À la fin de son internat, Joseph Babinski est promu chef de clinique de Charcot, dont il devient l'élève préféré, et participe aux leçons du maître à l'hôpital de la Salpêtrière.
+</t>
         </is>
       </c>
     </row>
@@ -579,10 +596,119 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Carrière médicale</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1890, Joseph Babinski est nommé médecin des hôpitaux. On dit qu'il était peu loquace durant ses consultations mais qu'il était un observateur exceptionnel. En 1895, il devient chef de service à l'Hôpital de la Pitié où il exerce jusqu'à sa retraite en 1922. Atteint de la maladie de Parkinson, il meurt en décembre 1932.
+Il a codifié la neurologie et distingué les grandes affections neurologique organiques des syndromes psychiatriques. Ses études sur les réflexes, la physiologie du cervelet ne sont que quelques étapes de l'œuvre de l'un des fondateurs de la société française de neurologie.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Joseph_Babinski</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Joseph_Babinski</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Activités littéraires</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Joseph Babinski est coauteur, sous le nom de plume d'Olaf, d'une pièce de Grand-Guignol écrite avec Pierre Palau et intitulée Les Détraquées. Celle-ci fut représentée pour la première fois au Théâtre des Deux-Masques le 15 février 1921. Elle relate le meurtre d'une jeune élève par la directrice d'un collège de filles et sa complice, professeur de danse. La pièce évoque sans fards les pulsions érotiques entre femmes. André Breton, qui fut en 1917 l'un des externes de Babinski, fait allusion à cette pièce dans Nadja. Marcel Proust a été son patient de 1918 à 1922 (biographie de Jean-Yves Tadié, édition de 2022).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Joseph_Babinski</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Joseph_Babinski</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Commandeur de la Légion d'honneur</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Joseph_Babinski</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Joseph_Babinski</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Éponymie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>signe de Babinski
 syndrome Anton-Babinski
@@ -594,31 +720,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Joseph_Babinski</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Joseph_Babinski</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Œuvres et publications</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve"> Étude anatomique et clinique sur la sclérose en plaques, G. Masson (Paris), 1885, lire en ligne sur Gallica.
 Recherches servant à établir que certaines manifestations hystériques peuvent être transférées d'un sujet à un autre sujet sous l'influence de l'aimant, A. Delahaye et E. Lecrosnier (Paris), 1886, lire en ligne sur Gallica.
